--- a/biology/Zoologie/Goniocidaris/Goniocidaris.xlsx
+++ b/biology/Zoologie/Goniocidaris/Goniocidaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniocidaris est un genre d'oursins de la famille des Cidaridae.
 </t>
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers : le test (coquille) est arrondi, avec le péristome (bouche) située au centre de la face orale (inférieure) et le périprocte (appareil contenant l'anus et les pores génitaux) à l'opposé, au sommet de la face aborale (supérieure).
-Les oursins de ce genre sont principalement reconnaissables à leurs radioles (piquants) de forme insolite : les radioles primaires sont longues et robustes, mais aussi très irrégulières, recouvertes d'excroissances corticales formant parfois des poils ou des pics secondaires, disposés de manière plus ou moins chaotique, celles de la face aborale se terminant souvent par d'étonnantes structures évasées, éventuellement en forme de trompette ou d'ombrelle[2]. Le test est légèrement subconique sur ce genre. Le disque apical est large, et mesure entre 30 et 40 % du diamètre du test chez l'adulte ; il est monocyclique, et uniformément couvert de tubercules (et donc de radioles). Les plaques oculaires sont larges, avec un dimorphisme sexuel au niveau de la largeur des pores génitaux. Les ambulacres sont larges et presque droits, avec des paires de pores disposées horizontalement, et bien séparées. Les interambulacres peuvent contenir jusqu'à 12 plaques par série, et portent des tubercules primaires perforés et non crénulés, montés sur des aréoles bien incisées. Les cercles scrobiculaires sont bien différentiés, avec des tubercules extrascrobiculaires de petite taille mais denses. Les sutures horizontales et interradiales sont profondément creusées[3].
-Ces oursins semblent être apparus au Crétacé (Maastrichtien). Les espèces contemporaines vivent souvent en profondeur, principalement dans les mers du bassin Indo-Pacifique[3].
+Les oursins de ce genre sont principalement reconnaissables à leurs radioles (piquants) de forme insolite : les radioles primaires sont longues et robustes, mais aussi très irrégulières, recouvertes d'excroissances corticales formant parfois des poils ou des pics secondaires, disposés de manière plus ou moins chaotique, celles de la face aborale se terminant souvent par d'étonnantes structures évasées, éventuellement en forme de trompette ou d'ombrelle. Le test est légèrement subconique sur ce genre. Le disque apical est large, et mesure entre 30 et 40 % du diamètre du test chez l'adulte ; il est monocyclique, et uniformément couvert de tubercules (et donc de radioles). Les plaques oculaires sont larges, avec un dimorphisme sexuel au niveau de la largeur des pores génitaux. Les ambulacres sont larges et presque droits, avec des paires de pores disposées horizontalement, et bien séparées. Les interambulacres peuvent contenir jusqu'à 12 plaques par série, et portent des tubercules primaires perforés et non crénulés, montés sur des aréoles bien incisées. Les cercles scrobiculaires sont bien différentiés, avec des tubercules extrascrobiculaires de petite taille mais denses. Les sutures horizontales et interradiales sont profondément creusées.
+Ces oursins semblent être apparus au Crétacé (Maastrichtien). Les espèces contemporaines vivent souvent en profondeur, principalement dans les mers du bassin Indo-Pacifique.
 			Goniocidaris tubaria du Muséum National d'Histoire Naturelle
 			Test nettoyé (idem)
 			Goniocidaris indica
@@ -547,9 +561,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (3 février 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (3 février 2014) :
 Goniocidaris alba Mortensen, 1928 -- Indo-Pacifique central (proche de G. clypeata)
 Goniocidaris australiae Mortensen, 1928 -- Indo-Pacifique central (proche de G. clypeata)
 Goniocidaris balinensis Mortensen, 1932 -- Indo-Pacifique central (proche de G. florigera)
@@ -583,12 +599,12 @@
 			Goniocidaris spinosa
 			Goniocidaris tenuispina
 			Goniocidaris umbraculum
-L'Echinoid Dorectory ajoute ces taxons fossiles[3] : 
+L'Echinoid Dorectory ajoute ces taxons fossiles : 
 Goniocidaris  murrayensis Chapman &amp; Cudmore, 1928 -- Miocène, Australie.
 Goniocidaris praecipua Philip, 1964 -- Miocène supérieur, Australie.
 Goniocidaris affinis Duncan &amp; Sladen, 1888 -- Miocène, Pakistan.
 Goniocidaris halaensis Duncan &amp; Sladen, 1888 -- Miocène, Pakistan.
-L'Echinoid Directory propose aussi de diviser ce vaste genre en plusieurs sous-genres (non repris par WoRMS)[3] : 
+L'Echinoid Directory propose aussi de diviser ce vaste genre en plusieurs sous-genres (non repris par WoRMS) : 
 Goniocidaris (Aspidocidaris) Mortensen, 1928 (radioles très baroques, fournie en longs poils corticaux formant des piquants et une pointe évasée en trompette)
 Goniocidaris (Aspidocidaris) alba Mortensen, 1928 -- Japon
 Goniocidaris (Aspidocidaris) australiae Mortensen, 1928 -- Australie
